--- a/planned_events.xlsx
+++ b/planned_events.xlsx
@@ -428,7 +428,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>

--- a/planned_events.xlsx
+++ b/planned_events.xlsx
@@ -458,9 +458,10 @@
       <c r="B2" s="1" t="n">
         <v>45308.98819444444</v>
       </c>
-      <c r="C2" s="2">
-        <f>B2-NOW()</f>
-        <v/>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Past due</t>
+        </is>
       </c>
     </row>
     <row r="3">

--- a/planned_events.xlsx
+++ b/planned_events.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,38 +452,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IESKAITE TIKS SLĒGTS</t>
+          <t>PROJEKTA IESNIEGUMA FORMA IR PIEEJAMS</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45308.98819444444</v>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Past due</t>
-        </is>
+        <v>45310</v>
+      </c>
+      <c r="C2" s="2">
+        <f>B2-NOW()</f>
+        <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PROJEKTA IESNIEGUMA FORMA IR PIEEJAMS</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45310</v>
-      </c>
-      <c r="C3" s="2">
-        <f>B3-NOW()</f>
-        <v/>
-      </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="C5" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
